--- a/fatsecret.xlsx
+++ b/fatsecret.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mira/Documents/GitHub/calorie9/fatsecret9/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5EE1E25-6EF9-2D42-84D4-544B7849825B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E42C0841-7F7C-4540-9C20-487E02CBAC9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17620" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -10058,7 +10058,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -10406,7 +10406,7 @@
   <dimension ref="A1:H2366"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -10535,6 +10535,9 @@
       <c r="G5" s="4">
         <v>762</v>
       </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6">

--- a/fatsecret.xlsx
+++ b/fatsecret.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mira/Documents/GitHub/calorie9/fatsecret9/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E42C0841-7F7C-4540-9C20-487E02CBAC9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CC85AED-328E-F64F-8AA2-FF00CC273A69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -10406,7 +10406,7 @@
   <dimension ref="A1:H2366"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -11174,6 +11174,9 @@
       <c r="G32" s="4">
         <v>10</v>
       </c>
+      <c r="H32">
+        <v>1</v>
+      </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33">

--- a/fatsecret.xlsx
+++ b/fatsecret.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mira/Documents/GitHub/calorie9/fatsecret9/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20FBA9B9-A4B2-BE48-A1C0-383827B986A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7E4278D-4C33-FF4F-82DD-B415383DEC8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18780" yWindow="1040" windowWidth="38400" windowHeight="19500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -10088,7 +10088,7 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="38" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="쉼표 [0]" xfId="1" builtinId="6"/>
@@ -10430,8 +10430,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J2366"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2093" workbookViewId="0">
-      <selection activeCell="L2358" sqref="L2358"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:I2366"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
